--- a/SW/SW_data/ratio_data.xlsx
+++ b/SW/SW_data/ratio_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lacoupe/Documents/bcv_project/BCVS/SW/SW_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0F72F-9262-854D-8D47-AA7986523443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964C83D-CB78-5D4E-BB28-B351B7847FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,17 @@
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3913,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12850,11 +12857,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
